--- a/tables/anova.xlsx
+++ b/tables/anova.xlsx
@@ -1,120 +1,59 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Corentin Gosling\drive_gmail\Recherche\es.utils\web\tables\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{943B7232-F47F-4981-AA7F-C297EF9518D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
-  <si>
-    <t>all_info_expected</t>
-  </si>
-  <si>
-    <t>study_id</t>
-  </si>
-  <si>
-    <t>anova_f</t>
-  </si>
-  <si>
-    <t>anova_f_pval</t>
-  </si>
-  <si>
-    <t>student_t</t>
-  </si>
-  <si>
-    <t>student_t_pval</t>
-  </si>
-  <si>
-    <t>pt_bis_r</t>
-  </si>
-  <si>
-    <t>pt_bis_r_pval</t>
-  </si>
-  <si>
-    <t>etasq</t>
-  </si>
-  <si>
-    <t>n_exp</t>
-  </si>
-  <si>
-    <t>n_nexp</t>
-  </si>
-  <si>
-    <t>anova_f + anova_f_pval + etasq</t>
-  </si>
-  <si>
-    <t>0.055</t>
-  </si>
-  <si>
-    <t>4.98</t>
-  </si>
-  <si>
-    <t>0.03</t>
-  </si>
-  <si>
-    <t>5.94</t>
-  </si>
-  <si>
-    <t>0.0058</t>
-  </si>
-  <si>
-    <t>3.78</t>
-  </si>
-  <si>
-    <t>0.00359</t>
-  </si>
-  <si>
-    <t>0.809</t>
-  </si>
-  <si>
-    <t>0.757</t>
-  </si>
-  <si>
-    <t>0.57</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t xml:space="preserve">all_info_expected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">study_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anova_f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anova_f_pval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">student_t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">student_t_pval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pt_bis_r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pt_bis_r_pval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">etasq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n_exp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n_nexp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -142,28 +81,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -445,204 +369,211 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="28.109375" style="1" customWidth="1"/>
-    <col min="2" max="3" width="11.5546875" style="1"/>
-    <col min="4" max="4" width="11.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" style="1"/>
-    <col min="6" max="6" width="11.5546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" style="1"/>
-    <col min="8" max="8" width="11.5546875" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="11.5546875" style="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="1">
-        <v>35</v>
-      </c>
-      <c r="K2" s="1">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="C2" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2" t="n">
+        <v>74</v>
+      </c>
+      <c r="K2" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" t="n">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="1">
-        <v>62</v>
-      </c>
-      <c r="K3" s="1">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="C3"/>
+      <c r="D3" t="n">
+        <v>0.0733</v>
+      </c>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3" t="n">
+        <v>31</v>
+      </c>
+      <c r="K3" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" t="n">
         <v>3</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="1">
-        <v>35</v>
-      </c>
-      <c r="K4" s="1">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4" t="n">
+        <v>51</v>
+      </c>
+      <c r="K4" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" t="n">
         <v>4</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="1">
-        <v>29</v>
-      </c>
-      <c r="K5" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5" t="n">
+        <v>0.00791</v>
+      </c>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5" t="n">
+        <v>41</v>
+      </c>
+      <c r="K5" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" t="n">
         <v>5</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="1">
-        <v>94</v>
-      </c>
-      <c r="K6" s="1">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6" t="n">
+        <v>77</v>
+      </c>
+      <c r="K6" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" t="n">
         <v>6</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" s="1">
-        <v>85</v>
-      </c>
-      <c r="K7" s="1">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7" t="n">
+        <v>0.274</v>
+      </c>
+      <c r="I7"/>
+      <c r="J7" t="n">
+        <v>14</v>
+      </c>
+      <c r="K7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" t="n">
         <v>7</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="1">
-        <v>100</v>
-      </c>
-      <c r="K8" s="1">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="1">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9" s="1">
-        <v>42</v>
-      </c>
-      <c r="K9" s="1">
-        <v>38</v>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J8" t="n">
+        <v>80</v>
+      </c>
+      <c r="K8" t="n">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/tables/anova.xlsx
+++ b/tables/anova.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t xml:space="preserve">all_info_expected</t>
   </si>
@@ -20,6 +20,12 @@
     <t xml:space="preserve">study_id</t>
   </si>
   <si>
+    <t xml:space="preserve">natural_es</t>
+  </si>
+  <si>
+    <t xml:space="preserve">converted_es</t>
+  </si>
+  <si>
     <t xml:space="preserve">anova_f</t>
   </si>
   <si>
@@ -45,6 +51,12 @@
   </si>
   <si>
     <t xml:space="preserve">n_nexp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D+G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OR+R+Z</t>
   </si>
 </sst>
 </file>
@@ -410,166 +422,214 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="D2"/>
-      <c r="E2"/>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2.91</v>
+      </c>
       <c r="F2"/>
       <c r="G2"/>
       <c r="H2"/>
       <c r="I2"/>
-      <c r="J2" t="n">
-        <v>74</v>
-      </c>
-      <c r="K2" t="n">
-        <v>83</v>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2" t="n">
+        <v>84</v>
+      </c>
+      <c r="M2" t="n">
+        <v>109</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
-      <c r="C3"/>
-      <c r="D3" t="n">
-        <v>0.0733</v>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
       </c>
       <c r="E3"/>
-      <c r="F3"/>
+      <c r="F3" t="n">
+        <v>0.0213</v>
+      </c>
       <c r="G3"/>
       <c r="H3"/>
       <c r="I3"/>
-      <c r="J3" t="n">
-        <v>31</v>
-      </c>
-      <c r="K3" t="n">
-        <v>53</v>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3" t="n">
+        <v>55</v>
+      </c>
+      <c r="M3" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4" t="n">
-        <v>2.05</v>
-      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4"/>
       <c r="F4"/>
-      <c r="G4"/>
+      <c r="G4" t="n">
+        <v>4.49</v>
+      </c>
       <c r="H4"/>
       <c r="I4"/>
-      <c r="J4" t="n">
-        <v>51</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4" t="n">
         <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
-      <c r="C5"/>
-      <c r="D5"/>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
       <c r="E5"/>
-      <c r="F5" t="n">
-        <v>0.00791</v>
-      </c>
+      <c r="F5"/>
       <c r="G5"/>
-      <c r="H5"/>
+      <c r="H5" t="n">
+        <v>0.00656</v>
+      </c>
       <c r="I5"/>
-      <c r="J5" t="n">
-        <v>41</v>
-      </c>
-      <c r="K5" t="n">
-        <v>38</v>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5" t="n">
+        <v>74</v>
+      </c>
+      <c r="M5" t="n">
+        <v>78</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
-      <c r="C6"/>
-      <c r="D6"/>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
       <c r="E6"/>
       <c r="F6"/>
-      <c r="G6" t="n">
-        <v>1.18</v>
-      </c>
+      <c r="G6"/>
       <c r="H6"/>
-      <c r="I6"/>
-      <c r="J6" t="n">
-        <v>77</v>
-      </c>
-      <c r="K6" t="n">
-        <v>75</v>
+      <c r="I6" t="n">
+        <v>2</v>
+      </c>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6" t="n">
+        <v>19</v>
+      </c>
+      <c r="M6" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B7" t="n">
         <v>6</v>
       </c>
-      <c r="C7"/>
-      <c r="D7"/>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
       <c r="E7"/>
       <c r="F7"/>
       <c r="G7"/>
-      <c r="H7" t="n">
-        <v>0.274</v>
-      </c>
+      <c r="H7"/>
       <c r="I7"/>
       <c r="J7" t="n">
-        <v>14</v>
-      </c>
-      <c r="K7" t="n">
-        <v>7</v>
+        <v>0.278</v>
+      </c>
+      <c r="K7"/>
+      <c r="L7" t="n">
+        <v>40</v>
+      </c>
+      <c r="M7" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B8" t="n">
         <v>7</v>
       </c>
-      <c r="C8"/>
-      <c r="D8"/>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
       <c r="E8"/>
       <c r="F8"/>
       <c r="G8"/>
       <c r="H8"/>
-      <c r="I8" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="J8" t="n">
-        <v>80</v>
-      </c>
+      <c r="I8"/>
+      <c r="J8"/>
       <c r="K8" t="n">
-        <v>88</v>
+        <v>0.061</v>
+      </c>
+      <c r="L8" t="n">
+        <v>85</v>
+      </c>
+      <c r="M8" t="n">
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/tables/anova.xlsx
+++ b/tables/anova.xlsx
@@ -443,7 +443,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>2.91</v>
+        <v>1.84</v>
       </c>
       <c r="F2"/>
       <c r="G2"/>
@@ -452,10 +452,10 @@
       <c r="J2"/>
       <c r="K2"/>
       <c r="L2" t="n">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="M2" t="n">
-        <v>109</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3">
@@ -473,7 +473,7 @@
       </c>
       <c r="E3"/>
       <c r="F3" t="n">
-        <v>0.0213</v>
+        <v>0.031</v>
       </c>
       <c r="G3"/>
       <c r="H3"/>
@@ -481,10 +481,10 @@
       <c r="J3"/>
       <c r="K3"/>
       <c r="L3" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="M3" t="n">
-        <v>57</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4">
@@ -503,17 +503,17 @@
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4" t="n">
-        <v>4.49</v>
+        <v>2.18</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
       <c r="J4"/>
       <c r="K4"/>
       <c r="L4" t="n">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="M4" t="n">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5">
@@ -533,16 +533,16 @@
       <c r="F5"/>
       <c r="G5"/>
       <c r="H5" t="n">
-        <v>0.00656</v>
+        <v>0.00368</v>
       </c>
       <c r="I5"/>
       <c r="J5"/>
       <c r="K5"/>
       <c r="L5" t="n">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="M5" t="n">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6">
@@ -563,15 +563,15 @@
       <c r="G6"/>
       <c r="H6"/>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6" t="n">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="M6" t="n">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
@@ -593,14 +593,14 @@
       <c r="H7"/>
       <c r="I7"/>
       <c r="J7" t="n">
-        <v>0.278</v>
+        <v>0.744</v>
       </c>
       <c r="K7"/>
       <c r="L7" t="n">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="M7" t="n">
-        <v>44</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8">
@@ -623,13 +623,13 @@
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8" t="n">
-        <v>0.061</v>
+        <v>0.098</v>
       </c>
       <c r="L8" t="n">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="M8" t="n">
-        <v>103</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/tables/anova.xlsx
+++ b/tables/anova.xlsx
@@ -443,7 +443,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>1.84</v>
+        <v>3.8</v>
       </c>
       <c r="F2"/>
       <c r="G2"/>
@@ -452,10 +452,10 @@
       <c r="J2"/>
       <c r="K2"/>
       <c r="L2" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="M2" t="n">
-        <v>24</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
@@ -473,7 +473,7 @@
       </c>
       <c r="E3"/>
       <c r="F3" t="n">
-        <v>0.031</v>
+        <v>0.0126</v>
       </c>
       <c r="G3"/>
       <c r="H3"/>
@@ -481,10 +481,10 @@
       <c r="J3"/>
       <c r="K3"/>
       <c r="L3" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M3" t="n">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4">
@@ -503,17 +503,17 @@
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4" t="n">
-        <v>2.18</v>
+        <v>4.94</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
       <c r="J4"/>
       <c r="K4"/>
       <c r="L4" t="n">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="M4" t="n">
-        <v>46</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5">
@@ -533,16 +533,16 @@
       <c r="F5"/>
       <c r="G5"/>
       <c r="H5" t="n">
-        <v>0.00368</v>
+        <v>0.00954</v>
       </c>
       <c r="I5"/>
       <c r="J5"/>
       <c r="K5"/>
       <c r="L5" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M5" t="n">
-        <v>68</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
@@ -563,15 +563,15 @@
       <c r="G6"/>
       <c r="H6"/>
       <c r="I6" t="n">
-        <v>4</v>
+        <v>4.82</v>
       </c>
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6" t="n">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="M6" t="n">
-        <v>40</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7">
@@ -593,14 +593,14 @@
       <c r="H7"/>
       <c r="I7"/>
       <c r="J7" t="n">
-        <v>0.744</v>
+        <v>0.268</v>
       </c>
       <c r="K7"/>
       <c r="L7" t="n">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="M7" t="n">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8">
@@ -623,13 +623,13 @@
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8" t="n">
-        <v>0.098</v>
+        <v>0.743</v>
       </c>
       <c r="L8" t="n">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="M8" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
